--- a/xlsx/太浩湖_intext.xlsx
+++ b/xlsx/太浩湖_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>太浩湖</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>政策_政策_加州_太浩湖</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -47,31 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E6%B5%A9%E6%B9%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>南太浩湖 (加利福尼亞州)</t>
+    <t>南太浩湖 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>内华达州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%A3%AE%E5%9F%8E_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡森城 (內華達州)</t>
+    <t>卡森城 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%87%8C</t>
@@ -83,31 +77,31 @@
     <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>80號州際高速公路</t>
+    <t>80号州际高速公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>雷諾 (內華達州)</t>
+    <t>雷诺 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>內華達山脈 (美國)</t>
+    <t>内华达山脉 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國地質調查局</t>
+    <t>美国地质调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
@@ -658,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -684,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -713,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -742,10 +736,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -771,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -800,10 +794,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -829,10 +823,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -887,10 +881,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -916,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -945,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
